--- a/Resources/Data_dictionary .xlsx
+++ b/Resources/Data_dictionary .xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diegoleoro/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diegoleoro/Movies_PJ/ETL_Project/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEDFFB36-148A-004D-A8BA-98AFB31C7111}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265246E3-D318-B041-BB51-9B74FA820027}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16360" windowHeight="18000" xr2:uid="{A5833062-A584-0749-A956-DE747DC92746}"/>
+    <workbookView xWindow="2820" yWindow="460" windowWidth="24740" windowHeight="16800" xr2:uid="{A5833062-A584-0749-A956-DE747DC92746}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t xml:space="preserve">Data Dictionary </t>
   </si>
@@ -51,12 +51,6 @@
     <t xml:space="preserve">Example </t>
   </si>
   <si>
-    <t>Director</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Language </t>
-  </si>
-  <si>
     <t>Rated</t>
   </si>
   <si>
@@ -87,12 +81,6 @@
     <t xml:space="preserve">Primary key of the table </t>
   </si>
   <si>
-    <t xml:space="preserve">Movie director </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Movie language </t>
-  </si>
-  <si>
     <t xml:space="preserve">Rate of the film's suitability for certain audiences based on its content </t>
   </si>
   <si>
@@ -108,12 +96,6 @@
     <t>Movie rating on imdb</t>
   </si>
   <si>
-    <t xml:space="preserve">Gus Van Sant </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creole </t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -153,16 +135,7 @@
     <t>Movie_ID</t>
   </si>
   <si>
-    <t>Director_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Director </t>
-  </si>
-  <si>
     <t xml:space="preserve">ID of the genre </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID of the director </t>
   </si>
   <si>
     <t>Drama</t>
@@ -255,12 +228,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -269,6 +236,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -304,8 +277,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8012185D-7D81-9548-BD8D-0ED8E7B11EFF}" name="Table4" displayName="Table4" ref="A2:E18" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A2:E18" xr:uid="{E32D8EA7-B7FA-974A-A51F-4319617CE34D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8012185D-7D81-9548-BD8D-0ED8E7B11EFF}" name="Table4" displayName="Table4" ref="A2:E14" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A2:E14" xr:uid="{E32D8EA7-B7FA-974A-A51F-4319617CE34D}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{9893C21A-C304-DD40-94AB-0AD4B94DB06C}" name="Table "/>
     <tableColumn id="2" xr3:uid="{044AA9D8-C88C-D344-9E1D-5B0BEF173E73}" name="Field Name "/>
@@ -614,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFDA126-09DA-3244-A245-C241EB9EE1BF}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -630,13 +603,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="39" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -657,278 +630,210 @@
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="39" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="8">
+        <v>15</v>
+      </c>
+      <c r="E3" s="6">
         <v>20345</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" ht="39" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="10">
+        <v>25</v>
+      </c>
+      <c r="E4" s="8">
         <v>659363944</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" ht="39" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="8">
+        <v>15</v>
+      </c>
+      <c r="E5" s="6">
         <v>34863</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="39" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>44</v>
+        <v>30</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="39" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="8">
+        <v>15</v>
+      </c>
+      <c r="E7" s="6">
         <v>45934</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="32" customHeight="1">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="38" customHeight="1">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="9">
+        <v>20</v>
+      </c>
+      <c r="E9" s="7">
         <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="34" customHeight="1">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="9">
+        <v>19</v>
+      </c>
+      <c r="E10" s="7">
         <v>565</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="34" customHeight="1">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="9">
+        <v>15</v>
+      </c>
+      <c r="E11" s="7">
         <v>87659</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="36" customHeight="1">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="34" customHeight="1">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="6">
+        <v>34863</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="38" customHeight="1">
+      <c r="A14" t="s">
         <v>33</v>
       </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="8">
-        <v>34863</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="34" customHeight="1">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="9">
-        <v>28773</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="31" customHeight="1">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="38" customHeight="1">
-      <c r="A16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="9">
+        <v>18</v>
+      </c>
+      <c r="E14" s="7">
         <v>2013</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="38" customHeight="1">
-      <c r="A17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="9">
-        <v>28773</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1">
-      <c r="A18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="18">
-      <c r="D22" s="4"/>
+    <row r="18" spans="4:4" ht="18">
+      <c r="D18" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
